--- a/Model Summary/GEN-NTSK-RLS_parameters.xlsx
+++ b/Model Summary/GEN-NTSK-RLS_parameters.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,20 +456,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.53409995]
- [0.53089135]
- [0.49963495]]</t>
+          <t>[[0.44889334]
+ [0.441223  ]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[0.35605995]
- [0.34164919]
- [0.33526768]]</t>
+          <t>[[0.20702952]
+ [0.17418403]]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
